--- a/BOMs/LV_Powerboard.xlsx
+++ b/BOMs/LV_Powerboard.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\Desktop\UIUCClasses\ECE445\SeniorDesign\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhruv\Documents\College\ECE\445\SeniorDesign\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FDDBEF-2951-4AC7-8636-9A4DE698327B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FF9EE6-325C-4A2A-B16D-EB3D94A2FCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C44C7430-4E06-405D-8C17-67C86913A8CB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{C44C7430-4E06-405D-8C17-67C86913A8CB}"/>
   </bookViews>
   <sheets>
     <sheet name="LV Powerboard" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -305,9 +294,6 @@
     <t>https://www.digikey.com/en/products/detail/texas-instruments/INA219AID/2047415</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Samtec/TSW-110-08-F-D-RA?qs=rU5fayqh%252BE0v9CB6rmNMmg%3D%3D&amp;utm_source=octopart&amp;utm_medium=aggregator&amp;utm_campaign=200-TSW11008FDRA&amp;utm_content=Samtec</t>
-  </si>
-  <si>
     <t>https://www.coilcraft.com/en-us/products/power/shielded-inductors/molded-inductor/xal/xal7070/xal7070-153/</t>
   </si>
   <si>
@@ -333,6 +319,9 @@
   </si>
   <si>
     <t>ON 0603 Sheet</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/TSW-110-08-F-D-RA/SAM10352-ND/6679089?curr=usd&amp;utm_campaign=buynow&amp;utm_medium=aggregator&amp;utm_source=octopart</t>
   </si>
 </sst>
 </file>
@@ -416,7 +405,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -435,6 +424,9 @@
     <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -771,23 +763,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C8DEA6-6882-49BE-B6F9-FF50F6288F79}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
-    <col min="4" max="4" width="128.28515625" customWidth="1"/>
-    <col min="5" max="6" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="1" max="2" width="19.73046875" customWidth="1"/>
+    <col min="3" max="3" width="34.59765625" customWidth="1"/>
+    <col min="4" max="4" width="128.265625" customWidth="1"/>
+    <col min="5" max="6" width="19.73046875" customWidth="1"/>
+    <col min="8" max="8" width="28.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -816,7 +808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -846,7 +838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -857,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -871,7 +863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -882,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -896,7 +888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -907,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -921,7 +913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -932,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -946,7 +938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -957,7 +949,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -971,7 +963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -982,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -996,7 +988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1007,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1021,7 +1013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1032,7 +1024,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1046,7 +1038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -1057,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1071,7 +1063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -1101,39 +1093,39 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="10">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="11">
         <f t="shared" ref="F13:F14" si="0">E13*C13</f>
         <v>2.4300000000000002</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>33</v>
@@ -1142,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" s="12">
         <v>3.25</v>
@@ -1161,7 +1153,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -1172,7 +1164,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1186,7 +1178,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -1197,7 +1189,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1211,7 +1203,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -1222,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1236,7 +1228,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -1247,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1261,7 +1253,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>55</v>
       </c>
@@ -1272,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E19" s="10">
         <v>0.45</v>
@@ -1291,7 +1283,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -1302,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1316,7 +1308,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -1327,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1341,9 +1333,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>33</v>
@@ -1352,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="10">
         <v>0.97</v>
@@ -1371,7 +1363,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
         <v>64</v>
       </c>
@@ -1382,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" s="10">
         <v>0.94</v>
@@ -1401,7 +1393,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>69</v>
       </c>
@@ -1424,7 +1416,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
         <v>74</v>
       </c>
@@ -1435,7 +1427,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="10">
         <v>0.38</v>
@@ -1454,7 +1446,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>79</v>
       </c>
@@ -1465,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" s="10">
         <v>5.67</v>
@@ -1482,6 +1474,12 @@
       </c>
       <c r="I26" s="9" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F27" s="14">
+        <f>SUM(F2:F26)</f>
+        <v>27.25</v>
       </c>
     </row>
   </sheetData>

--- a/BOMs/LV_Powerboard.xlsx
+++ b/BOMs/LV_Powerboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhruv\Documents\College\ECE\445\SeniorDesign\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FF9EE6-325C-4A2A-B16D-EB3D94A2FCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C55EDC-A2B9-4AC2-B1FF-42F7F475D0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{C44C7430-4E06-405D-8C17-67C86913A8CB}"/>
   </bookViews>
@@ -405,14 +405,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -422,8 +421,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -766,7 +763,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -809,10 +806,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="5">
@@ -821,20 +818,20 @@
       <c r="D2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>0.45</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <f>E2*C2</f>
         <v>2.7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -848,7 +845,7 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E3" s="1"/>
@@ -873,7 +870,7 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E4" s="1"/>
@@ -898,7 +895,7 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E5" s="1"/>
@@ -923,7 +920,7 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E6" s="1"/>
@@ -948,7 +945,7 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E7" s="1"/>
@@ -973,7 +970,7 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="1"/>
@@ -998,7 +995,7 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E9" s="1"/>
@@ -1023,7 +1020,7 @@
       <c r="C10" s="1">
         <v>16</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E10" s="1"/>
@@ -1048,7 +1045,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E11" s="1"/>
@@ -1064,10 +1061,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="5">
@@ -1076,80 +1073,80 @@
       <c r="D12" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>2.7</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f>C12*E12</f>
         <v>2.7</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <f t="shared" ref="F13:F14" si="0">E13*C13</f>
         <v>2.4300000000000002</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <v>3.25</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="10">
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1163,7 +1160,7 @@
       <c r="C15" s="1">
         <v>6</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E15" s="1"/>
@@ -1188,7 +1185,7 @@
       <c r="C16" s="1">
         <v>3</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E16" s="1"/>
@@ -1213,7 +1210,7 @@
       <c r="C17" s="1">
         <v>4</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E17" s="1"/>
@@ -1238,7 +1235,7 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E18" s="1"/>
@@ -1254,32 +1251,32 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>0.45</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <f t="shared" ref="F19" si="1">E19*C19</f>
         <v>0.45</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1293,7 +1290,7 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E20" s="1"/>
@@ -1318,7 +1315,7 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E21" s="1"/>
@@ -1334,10 +1331,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="5">
@@ -1346,28 +1343,28 @@
       <c r="D22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>0.97</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <f t="shared" ref="F22:F23" si="2">E22*C22</f>
         <v>0.97</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="5">
@@ -1376,20 +1373,20 @@
       <c r="D23" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>0.94</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <f t="shared" si="2"/>
         <v>3.76</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1403,7 +1400,7 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="2" t="s">
@@ -1417,10 +1414,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="5">
@@ -1429,28 +1426,28 @@
       <c r="D25" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>0.38</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <f t="shared" ref="F25" si="3">E25*C25</f>
         <v>5.32</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="5">
@@ -1459,25 +1456,25 @@
       <c r="D26" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>5.67</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <f>E26*C26</f>
         <v>5.67</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F27" s="14">
+      <c r="F27" s="11">
         <f>SUM(F2:F26)</f>
         <v>27.25</v>
       </c>
